--- a/Result/26-10-24/NASDAQstock_26-10-24period252RS90.xlsx
+++ b/Result/26-10-24/NASDAQstock_26-10-24period252RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/26-10-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD6D259-2072-7D46-8946-8A7EEA5E8035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFF8A51-378C-5F40-8B76-17B2A4D9B121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:AN98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="AJ65" sqref="AJ65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
